--- a/Jashera 2023/Jashra_2023.xlsx
+++ b/Jashera 2023/Jashra_2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b36106a05bf74bb/Документы/GitHub/Lab-processings/Jashera 2023/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A334CFC37B9E09B8926B659F902B2F59733D73D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C522AA-5659-47F6-A602-21FF40461C41}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 1" sheetId="6" r:id="rId1"/>
@@ -24,22 +30,33 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Участники!$H$1:$M$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Список для страховки'!#REF!</definedName>
     <definedName name="_ftn1" localSheetId="1">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="1">'Маршлист внешняя сторона'!$H$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Для МЧС'!#REF!</definedName>
-    <definedName name="class" localSheetId="3">[3]Справочник!$H$2:$H$14</definedName>
-    <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
-    <definedName name="dist" localSheetId="3">[3]Справочник!$F$2:$F$19</definedName>
-    <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Список для страховки'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Участники!$H$1:$M$35</definedName>
+    <definedName name="class" localSheetId="3">[1]Справочник!$H$2:$H$14</definedName>
+    <definedName name="class">[2]Справочник!$H$2:$H$14</definedName>
+    <definedName name="dist" localSheetId="3">[1]Справочник!$F$2:$F$19</definedName>
+    <definedName name="dist">[3]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="553">
   <si>
     <t>СПИСОК ГРУППЫ</t>
   </si>
@@ -1217,12 +1234,6 @@
     <t>АО Сбертех</t>
   </si>
   <si>
-    <t>4018 026604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гу мвд россии по санкт-петербургу и лен.области </t>
-  </si>
-  <si>
     <t>II-АК 745301</t>
   </si>
   <si>
@@ -1286,9 +1297,6 @@
     <t>"АКР - Сервис"</t>
   </si>
   <si>
-    <t xml:space="preserve">ГУ МВД РОССИИ ПО САНКТ-ПЕТЕРБУРГУ И ЛЕНИНГРАДСКОЙ ОБЛАСТИ </t>
-  </si>
-  <si>
     <t>169-115-209 65</t>
   </si>
   <si>
@@ -1752,24 +1760,23 @@
   </si>
   <si>
     <t>Соловьева</t>
+  </si>
+  <si>
+    <t>ТП №8 Отдела УФМС России по Санкт-Петербургу и Ленинградской области в Василеостровском районе Санкт-Петербурга</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="181" formatCode="#\ ##0"/>
-    <numFmt numFmtId="182" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="183" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="184" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="169" formatCode="#\ ##0"/>
+    <numFmt numFmtId="170" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="171" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="172" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1967,150 +1974,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -2119,7 +1990,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2156,194 +2027,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2552,260 +2237,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2833,17 +2279,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2861,21 +2307,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2884,8 +2330,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2894,7 +2340,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2903,10 +2349,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -2915,7 +2361,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2927,7 +2373,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2941,15 +2387,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="52" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2964,7 +2410,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2972,86 +2418,29 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3068,218 +2457,266 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="7">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="8"/>
-    <cellStyle name="40% — Акцент6" xfId="9" builtinId="51"/>
-    <cellStyle name="Процент" xfId="10" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="11" builtinId="34"/>
-    <cellStyle name="Итого" xfId="12" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="13" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="14" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="17" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="18" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="19" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="20" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="21" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="22" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="23" builtinId="18"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="24"/>
-    <cellStyle name="Заголовок 4" xfId="25" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="26" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="27" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="28" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="29" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="30" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="31" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="32" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="33" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="34" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="35" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="36" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="37" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="38" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="39" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="40" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="41" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="42" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="43" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="44" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="45" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="47" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="48" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="49" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="50" builtinId="52"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="51"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="52"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="53"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="3" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Обычный_общий список" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3296,12 +2733,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3322,7 +2762,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3343,7 +2783,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3615,11 +3055,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3631,92 +3072,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.44444444444444" style="58" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="58" customWidth="1"/>
     <col min="2" max="2" width="18" style="58" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="58"/>
-    <col min="4" max="4" width="11.1111111111111" style="58" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="58" customWidth="1"/>
-    <col min="6" max="6" width="29.8888888888889" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.44444444444444" style="58" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="58"/>
+    <col min="4" max="4" width="11.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="58" customWidth="1"/>
     <col min="8" max="8" width="11" style="58" customWidth="1"/>
-    <col min="9" max="9" width="3.66666666666667" style="58" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" style="58"/>
-    <col min="11" max="11" width="17.8888888888889" style="58" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="58"/>
+    <col min="11" max="11" width="17.88671875" style="58" customWidth="1"/>
     <col min="12" max="12" width="5" style="58" customWidth="1"/>
-    <col min="13" max="13" width="12.5555555555556" style="58" customWidth="1"/>
-    <col min="14" max="256" width="8.33333333333333" style="58"/>
+    <col min="13" max="13" width="12.5546875" style="58" customWidth="1"/>
+    <col min="14" max="256" width="8.33203125" style="58"/>
     <col min="257" max="16384" width="8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-    </row>
-    <row r="2" ht="51.9" customHeight="1" spans="1:13">
-      <c r="A2" s="128" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+    </row>
+    <row r="2" spans="1:14" ht="51.9" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="164" t="s">
+      <c r="M2" s="130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A3" s="132">
-        <v>1</v>
-      </c>
-      <c r="B3" s="133" t="str">
+    <row r="3" spans="1:14" s="91" customFormat="1" ht="15.6">
+      <c r="A3" s="110">
+        <v>1</v>
+      </c>
+      <c r="B3" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Аудах Никита</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="112">
         <f>'Информация для бумаг'!P5</f>
         <v>40100</v>
       </c>
@@ -3728,42 +3169,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>7</v>
       </c>
-      <c r="F3" s="135" t="str">
+      <c r="F3" s="113" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Ул. Мытнинская, 5/2-5</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="138">
-        <v>1</v>
-      </c>
-      <c r="J3" s="165" t="s">
+      <c r="I3" s="115">
+        <v>1</v>
+      </c>
+      <c r="J3" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="167">
+      <c r="L3" s="133">
         <v>117</v>
       </c>
-      <c r="M3" s="167" t="s">
+      <c r="M3" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="168"/>
-    </row>
-    <row r="4" s="109" customFormat="1" ht="21" customHeight="1" spans="1:14">
-      <c r="A4" s="138">
+      <c r="N3" s="134"/>
+    </row>
+    <row r="4" spans="1:14" s="91" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="115">
         <v>2</v>
       </c>
-      <c r="B4" s="133" t="str">
+      <c r="B4" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="134">
+      <c r="C4" s="112">
         <f>'Информация для бумаг'!P6</f>
         <v>39367</v>
       </c>
@@ -3775,38 +3216,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>8</v>
       </c>
-      <c r="F4" s="135" t="str">
+      <c r="F4" s="113" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>Ул. Пестеля, 13-15-108</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="132">
+      <c r="H4" s="153"/>
+      <c r="I4" s="110">
         <v>2</v>
       </c>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="166" t="s">
+      <c r="K4" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167" t="s">
+      <c r="L4" s="133"/>
+      <c r="M4" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="168"/>
-    </row>
-    <row r="5" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A5" s="132">
+      <c r="N4" s="134"/>
+    </row>
+    <row r="5" spans="1:14" s="91" customFormat="1" ht="15.6">
+      <c r="A5" s="110">
         <v>3</v>
       </c>
-      <c r="B5" s="133" t="str">
+      <c r="B5" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="112">
         <f>'Информация для бумаг'!P7</f>
         <v>39857</v>
       </c>
@@ -3818,40 +3259,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>7</v>
       </c>
-      <c r="F5" s="135" t="str">
+      <c r="F5" s="113" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Пр. Ветеранов, 3-167</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="138">
+      <c r="H5" s="153"/>
+      <c r="I5" s="115">
         <v>3</v>
       </c>
-      <c r="J5" s="170" t="s">
+      <c r="J5" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="166" t="s">
+      <c r="K5" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="167">
+      <c r="L5" s="133">
         <v>117</v>
       </c>
-      <c r="M5" s="167" t="s">
+      <c r="M5" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="168"/>
-    </row>
-    <row r="6" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="138">
+      <c r="N5" s="134"/>
+    </row>
+    <row r="6" spans="1:14" s="91" customFormat="1" ht="15.6">
+      <c r="A6" s="115">
         <v>4</v>
       </c>
-      <c r="B6" s="133" t="str">
+      <c r="B6" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="112">
         <f>'Информация для бумаг'!P8</f>
         <v>39166</v>
       </c>
@@ -3863,30 +3304,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>9</v>
       </c>
-      <c r="F6" s="135" t="str">
+      <c r="F6" s="113" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Ул. Малая Карпатская, 17-275</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="168"/>
-    </row>
-    <row r="7" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="132">
+      <c r="H6" s="153"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="134"/>
+    </row>
+    <row r="7" spans="1:14" s="91" customFormat="1" ht="15.6">
+      <c r="A7" s="110">
         <v>5</v>
       </c>
-      <c r="B7" s="133" t="str">
+      <c r="B7" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="112">
         <f>'Информация для бумаг'!P9</f>
         <v>40363</v>
       </c>
@@ -3898,30 +3339,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>6</v>
       </c>
-      <c r="F7" s="140" t="str">
+      <c r="F7" s="116" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Пр. Тореза, 80-78</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="139"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="168"/>
-    </row>
-    <row r="8" s="109" customFormat="1" spans="1:14">
-      <c r="A8" s="138">
+      <c r="H7" s="153"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134"/>
+    </row>
+    <row r="8" spans="1:14" s="91" customFormat="1">
+      <c r="A8" s="115">
         <v>6</v>
       </c>
-      <c r="B8" s="133" t="str">
+      <c r="B8" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Мелентьева Эмма</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="112">
         <f>'Информация для бумаг'!P10</f>
         <v>39581</v>
       </c>
@@ -3933,25 +3374,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="135" t="str">
+      <c r="F8" s="113" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Ул. Шишкина, 58</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="N8" s="171"/>
-    </row>
-    <row r="9" s="109" customFormat="1" spans="1:13">
-      <c r="A9" s="132">
+      <c r="H8" s="153"/>
+      <c r="N8" s="137"/>
+    </row>
+    <row r="9" spans="1:14" s="91" customFormat="1">
+      <c r="A9" s="110">
         <v>7</v>
       </c>
-      <c r="B9" s="133" t="str">
+      <c r="B9" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Меньшиков  Савва</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="112">
         <f>'Информация для бумаг'!P11</f>
         <v>39916</v>
       </c>
@@ -3963,29 +3404,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>7</v>
       </c>
-      <c r="F9" s="135" t="str">
+      <c r="F9" s="113" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Ул. Железноводская, 62-98</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-    </row>
-    <row r="10" s="109" customFormat="1" spans="1:13">
-      <c r="A10" s="138">
+      <c r="H9" s="153"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+    </row>
+    <row r="10" spans="1:14" s="91" customFormat="1">
+      <c r="A10" s="115">
         <v>8</v>
       </c>
-      <c r="B10" s="133" t="str">
+      <c r="B10" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Островский Виктор</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="112">
         <f>'Информация для бумаг'!P12</f>
         <v>40070</v>
       </c>
@@ -3997,29 +3438,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="F10" s="135" t="str">
+      <c r="F10" s="113" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Ул. Шишкина, 58</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="139"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-    </row>
-    <row r="11" s="109" customFormat="1" spans="1:13">
-      <c r="A11" s="132">
+      <c r="H10" s="153"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+    </row>
+    <row r="11" spans="1:14" s="91" customFormat="1">
+      <c r="A11" s="110">
         <v>9</v>
       </c>
-      <c r="B11" s="133" t="str">
+      <c r="B11" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Афинагентов Владимир</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="112">
         <f>'Информация для бумаг'!P13</f>
         <v>40306</v>
       </c>
@@ -4031,29 +3472,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>6</v>
       </c>
-      <c r="F11" s="135" t="str">
+      <c r="F11" s="113" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Ул. Репищева, 4/8-4</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="139"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-    </row>
-    <row r="12" s="109" customFormat="1" spans="1:13">
-      <c r="A12" s="138">
+      <c r="H11" s="153"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+    </row>
+    <row r="12" spans="1:14" s="91" customFormat="1">
+      <c r="A12" s="115">
         <v>10</v>
       </c>
-      <c r="B12" s="133" t="str">
+      <c r="B12" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Сахибгареев Тимур</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="112">
         <f>'Информация для бумаг'!P14</f>
         <v>40081</v>
       </c>
@@ -4065,29 +3506,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>7</v>
       </c>
-      <c r="F12" s="135" t="str">
+      <c r="F12" s="113" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>Пр. Просвещения, 75-231</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-    </row>
-    <row r="13" s="109" customFormat="1" spans="1:13">
-      <c r="A13" s="132">
+      <c r="H12" s="153"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+    </row>
+    <row r="13" spans="1:14" s="91" customFormat="1">
+      <c r="A13" s="110">
         <v>11</v>
       </c>
-      <c r="B13" s="133" t="str">
+      <c r="B13" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="112">
         <f>'Информация для бумаг'!P15</f>
         <v>40195</v>
       </c>
@@ -4099,29 +3540,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>7</v>
       </c>
-      <c r="F13" s="135" t="str">
+      <c r="F13" s="113" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул. Камышовая, 14А-163</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-    </row>
-    <row r="14" s="109" customFormat="1" spans="1:13">
-      <c r="A14" s="138">
+      <c r="H13" s="153"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+    </row>
+    <row r="14" spans="1:14" s="91" customFormat="1">
+      <c r="A14" s="115">
         <v>12</v>
       </c>
-      <c r="B14" s="133" t="str">
+      <c r="B14" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Тихонов Иван</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="112">
         <f>'Информация для бумаг'!P16</f>
         <v>40469</v>
       </c>
@@ -4133,29 +3574,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>5</v>
       </c>
-      <c r="F14" s="135" t="str">
+      <c r="F14" s="113" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул. Щербакова, 23-47</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-    </row>
-    <row r="15" s="109" customFormat="1" spans="1:13">
-      <c r="A15" s="132">
+      <c r="H14" s="153"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+    </row>
+    <row r="15" spans="1:14" s="91" customFormat="1">
+      <c r="A15" s="110">
         <v>13</v>
       </c>
-      <c r="B15" s="133" t="str">
+      <c r="B15" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Шалунов Максим</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="112">
         <f>'Информация для бумаг'!P17</f>
         <v>39821</v>
       </c>
@@ -4167,29 +3608,29 @@
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="F15" s="135" t="str">
+      <c r="F15" s="113" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Ул. Дибуновская, 37-392</v>
       </c>
-      <c r="G15" s="136" t="s">
+      <c r="G15" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-    </row>
-    <row r="16" s="109" customFormat="1" spans="1:13">
-      <c r="A16" s="138">
+      <c r="H15" s="153"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+    </row>
+    <row r="16" spans="1:14" s="91" customFormat="1">
+      <c r="A16" s="115">
         <v>14</v>
       </c>
-      <c r="B16" s="133" t="str">
+      <c r="B16" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="112">
         <f>'Информация для бумаг'!P18</f>
         <v>39529</v>
       </c>
@@ -4201,29 +3642,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>8</v>
       </c>
-      <c r="F16" s="135" t="str">
+      <c r="F16" s="113" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Приозерское шоссе, 16-46</v>
       </c>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-    </row>
-    <row r="17" s="109" customFormat="1" spans="1:13">
-      <c r="A17" s="132">
+      <c r="H16" s="153"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+    </row>
+    <row r="17" spans="1:13" s="91" customFormat="1">
+      <c r="A17" s="110">
         <v>15</v>
       </c>
-      <c r="B17" s="133" t="str">
+      <c r="B17" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шишкина Анна</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="112">
         <f>'Информация для бумаг'!P19</f>
         <v>39987</v>
       </c>
@@ -4235,61 +3676,61 @@
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="F17" s="135" t="str">
+      <c r="F17" s="113" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Пр. Сизова, 14-90</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-    </row>
-    <row r="18" s="109" customFormat="1" spans="1:13">
-      <c r="A18" s="138"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+    </row>
+    <row r="18" spans="1:13" s="91" customFormat="1">
+      <c r="A18" s="115"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="61"/>
       <c r="E18" s="62"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-    </row>
-    <row r="19" s="109" customFormat="1" spans="1:13">
-      <c r="A19" s="132"/>
-      <c r="B19" s="141" t="s">
+      <c r="F18" s="113"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+    </row>
+    <row r="19" spans="1:13" s="91" customFormat="1">
+      <c r="A19" s="110"/>
+      <c r="B19" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-    </row>
-    <row r="20" s="109" customFormat="1" spans="1:13">
-      <c r="A20" s="138">
-        <v>1</v>
-      </c>
-      <c r="B20" s="133" t="str">
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+    </row>
+    <row r="20" spans="1:13" s="91" customFormat="1">
+      <c r="A20" s="115">
+        <v>1</v>
+      </c>
+      <c r="B20" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
         <v>Беляева Олеся</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="112">
         <f>'Информация для бумаг'!P35</f>
         <v>39916</v>
       </c>
@@ -4301,29 +3742,29 @@
         <f>'Информация для бумаг'!I35</f>
         <v>8</v>
       </c>
-      <c r="F20" s="135" t="str">
+      <c r="F20" s="113" t="str">
         <f>'Информация для бумаг'!K35</f>
         <v>Ул. Вавиловых, 7-3-229</v>
       </c>
-      <c r="G20" s="136" t="s">
+      <c r="G20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="139"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-    </row>
-    <row r="21" s="109" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A21" s="132">
+      <c r="H20" s="153"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+    </row>
+    <row r="21" spans="1:13" s="91" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="110">
         <v>2</v>
       </c>
-      <c r="B21" s="133" t="str">
+      <c r="B21" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B36," ",'Информация для бумаг'!C36)</f>
         <v>Беляева Софья</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="112">
         <f>'Информация для бумаг'!P36</f>
         <v>38933</v>
       </c>
@@ -4335,33 +3776,33 @@
         <f>'Информация для бумаг'!I36</f>
         <v>6</v>
       </c>
-      <c r="F21" s="135" t="str">
+      <c r="F21" s="113" t="str">
         <f>'Информация для бумаг'!K36</f>
         <v>Ул. Вавиловых, 7-3-229</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="139"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-    </row>
-    <row r="22" s="109" customFormat="1" ht="21.9" customHeight="1" spans="1:13">
-      <c r="A22" s="138">
+      <c r="H21" s="153"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+    </row>
+    <row r="22" spans="1:13" s="91" customFormat="1" ht="21.9" customHeight="1">
+      <c r="A22" s="115">
         <v>3</v>
       </c>
-      <c r="B22" s="133" t="str">
+      <c r="B22" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B37," ",'Информация для бумаг'!C37)</f>
         <v>Журавская Елизавета</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="112">
         <f>'Информация для бумаг'!P37</f>
         <v>39810</v>
       </c>
-      <c r="D22" s="144" t="str">
+      <c r="D22" s="117" t="str">
         <f>'Информация для бумаг'!H37</f>
         <v>Раздольская СОШ</v>
       </c>
@@ -4369,29 +3810,29 @@
         <f>'Информация для бумаг'!I37</f>
         <v>5</v>
       </c>
-      <c r="F22" s="135" t="str">
+      <c r="F22" s="113" t="str">
         <f>'Информация для бумаг'!K37</f>
         <v>Призерский район, Ул. Приозерская, 95</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="139"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-    </row>
-    <row r="23" s="109" customFormat="1" spans="1:13">
-      <c r="A23" s="132">
+      <c r="H22" s="153"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+    </row>
+    <row r="23" spans="1:13" s="91" customFormat="1">
+      <c r="A23" s="110">
         <v>4</v>
       </c>
-      <c r="B23" s="133" t="str">
+      <c r="B23" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B38," ",'Информация для бумаг'!C38)</f>
         <v>Мурыгина Арина</v>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="112">
         <f>'Информация для бумаг'!P38</f>
         <v>40421</v>
       </c>
@@ -4403,29 +3844,29 @@
         <f>'Информация для бумаг'!I38</f>
         <v>6</v>
       </c>
-      <c r="F23" s="135" t="str">
+      <c r="F23" s="113" t="str">
         <f>'Информация для бумаг'!K38</f>
         <v>Ул. Малая десятинная, 11-46</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="139"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-    </row>
-    <row r="24" s="109" customFormat="1" spans="1:13">
-      <c r="A24" s="138">
+      <c r="H23" s="153"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+    </row>
+    <row r="24" spans="1:13" s="91" customFormat="1">
+      <c r="A24" s="115">
         <v>5</v>
       </c>
-      <c r="B24" s="133" t="str">
+      <c r="B24" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B39," ",'Информация для бумаг'!C39)</f>
         <v>Свитков Родион</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="112">
         <f>'Информация для бумаг'!P39</f>
         <v>39902</v>
       </c>
@@ -4437,198 +3878,193 @@
         <f>'Информация для бумаг'!I39</f>
         <v>7</v>
       </c>
-      <c r="F24" s="135" t="str">
+      <c r="F24" s="113" t="str">
         <f>'Информация для бумаг'!K39</f>
         <v>Ул. Демьяна Бедного, 8-1-74</v>
       </c>
-      <c r="G24" s="136" t="s">
+      <c r="G24" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="139"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-    </row>
-    <row r="25" s="109" customFormat="1" spans="1:13">
-      <c r="A25" s="132"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="145"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+    </row>
+    <row r="25" spans="1:13" s="91" customFormat="1">
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="62"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-    </row>
-    <row r="26" s="109" customFormat="1" spans="1:13">
-      <c r="A26" s="132"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="145"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+    </row>
+    <row r="26" spans="1:13" s="91" customFormat="1">
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-    </row>
-    <row r="27" s="109" customFormat="1" ht="12" spans="1:13">
-      <c r="A27" s="147"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-    </row>
-    <row r="28" s="109" customFormat="1" spans="1:13">
-      <c r="A28" s="132"/>
-      <c r="B28" s="149" t="str">
+      <c r="F26" s="119"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+    </row>
+    <row r="27" spans="1:13" s="91" customFormat="1" ht="12">
+      <c r="A27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+    </row>
+    <row r="28" spans="1:13" s="91" customFormat="1">
+      <c r="A28" s="110"/>
+      <c r="B28" s="122" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="150" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="138"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="62" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="153" t="s">
+      <c r="C29" s="112"/>
+      <c r="D29" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="172" t="s">
+      <c r="E29" s="146"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="174"/>
-    </row>
-    <row r="30" ht="15.6" spans="1:13">
-      <c r="A30" s="155" t="s">
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="149"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.6">
+      <c r="A30" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="157"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="154"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
       <c r="K30" s="62"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A31" s="158" t="s">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A31" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="159"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="156"/>
+      <c r="B31" s="151"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="162" t="s">
+      <c r="H32" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="8:8">
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1">
       <c r="H33" s="58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" ht="23.25" customHeight="1"/>
-    <row r="35" ht="23.25" customHeight="1"/>
-    <row r="36" ht="23.25" customHeight="1"/>
-    <row r="37" ht="23.25" customHeight="1"/>
-    <row r="38" ht="23.25" customHeight="1"/>
-    <row r="39" ht="23.25" customHeight="1"/>
-    <row r="40" ht="23.25" customHeight="1"/>
-    <row r="41" ht="23.25" customHeight="1"/>
-    <row r="42" ht="23.25" customHeight="1"/>
+    <row r="34" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="35" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="36" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="37" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="38" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="39" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="40" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="41" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="42" spans="8:8" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H3:H30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H3:H30"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4639,186 +4075,186 @@
   <cols>
     <col min="1" max="1" width="10" style="58" customWidth="1"/>
     <col min="2" max="6" width="8" style="58"/>
-    <col min="7" max="7" width="23.5555555555556" style="58" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="58" customWidth="1"/>
-    <col min="9" max="9" width="4.88888888888889" style="58" customWidth="1"/>
-    <col min="10" max="10" width="9.44444444444444" style="58" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="58" customWidth="1"/>
     <col min="11" max="11" width="8" style="58"/>
-    <col min="12" max="12" width="13.1111111111111" style="58"/>
-    <col min="13" max="13" width="9.88888888888889" style="58"/>
+    <col min="12" max="12" width="13.109375" style="58"/>
+    <col min="13" max="13" width="9.88671875" style="58"/>
     <col min="14" max="14" width="8" style="58"/>
-    <col min="15" max="15" width="1.55555555555556" style="58" customWidth="1"/>
+    <col min="15" max="15" width="1.5546875" style="58" customWidth="1"/>
     <col min="16" max="16384" width="8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="86" t="s">
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="85" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89" t="s">
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-    </row>
-    <row r="6" ht="18" spans="1:14">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="H6" s="85" t="s">
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+    </row>
+    <row r="6" spans="1:14" ht="18">
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="H6" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="90" t="s">
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="100" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="H8" s="95" t="s">
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="169"/>
+      <c r="H8" s="88" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="91"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+    <row r="9" spans="1:14" ht="15.6">
+      <c r="A9" s="162"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
       <c r="H9" s="85" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="58">
         <v>15</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="90" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="H10" s="88" t="s">
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="H10" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="120" t="str">
+      <c r="J10" s="157" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="163"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
       <c r="H11" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="122">
+      <c r="I11" s="101">
         <v>11</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="101">
+    <row r="12" spans="1:14" ht="15.6">
+      <c r="A12" s="89">
         <v>45050</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -4827,59 +4263,59 @@
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="123">
+      <c r="I12" s="159"/>
+      <c r="J12" s="102">
         <f>'Информация для бумаг'!C2</f>
         <v>45045</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="104">
         <f>'Информация для бумаг'!D2</f>
         <v>45056</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="103" t="s">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="103"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="H14" s="108" t="s">
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6">
+      <c r="A14" s="164"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="177"/>
+      <c r="H14" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="124" t="str">
+      <c r="K14" s="160" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="103"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="164"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="177"/>
       <c r="K15" s="59" t="s">
         <v>57</v>
       </c>
@@ -4888,63 +4324,63 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="103"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
-      <c r="H16" s="109" t="s">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A16" s="164"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="H16" s="91" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="110">
+    <row r="17" spans="1:14">
+      <c r="A17" s="92">
         <v>45055</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="H17" s="112" t="s">
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="H17" s="93" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="113">
+    <row r="18" spans="1:14">
+      <c r="A18" s="94">
         <v>45056</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="H19" s="108" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="H19" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="124" t="str">
+      <c r="K19" s="160" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-    </row>
-    <row r="20" spans="11:12">
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="K20" s="59" t="s">
         <v>57</v>
       </c>
@@ -4953,53 +4389,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="85" t="s">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H22" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="85" t="s">
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-    </row>
-    <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="108" t="s">
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6">
+      <c r="H25" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="126">
+      <c r="M25" s="105">
         <f>'Информация для бумаг'!C28</f>
         <v>45033</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="108" t="s">
+    <row r="26" spans="1:14" ht="15.6">
+      <c r="A26" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108" t="s">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="108" t="s">
+    <row r="28" spans="1:14" ht="15.6">
+      <c r="H28" s="90" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="108" t="s">
+    <row r="29" spans="1:14" ht="15.6">
+      <c r="H29" s="90" t="s">
         <v>69</v>
       </c>
       <c r="K29" s="58">
@@ -5010,19 +4446,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="108" t="s">
+    <row r="30" spans="1:14" ht="15.6">
+      <c r="A30" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="108"/>
-    </row>
-    <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="108" t="s">
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.6">
+      <c r="H31" s="90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="108" t="s">
+    <row r="32" spans="1:14" ht="15.6">
+      <c r="H32" s="90" t="s">
         <v>73</v>
       </c>
       <c r="K32" s="58">
@@ -5033,23 +4469,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="112" t="s">
+    <row r="33" spans="8:8" ht="15.6">
+      <c r="H33" s="93" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -5058,16 +4484,25 @@
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="B10:F11"/>
     <mergeCell ref="B13:F16"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
-  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
+  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5077,31 +4512,31 @@
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8" style="9"/>
-    <col min="2" max="2" width="28.8888888888889" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="9"/>
-    <col min="4" max="4" width="13.1111111111111" style="9"/>
-    <col min="5" max="5" width="21.4444444444444" style="9"/>
-    <col min="6" max="6" width="12.8888888888889" style="9"/>
-    <col min="7" max="7" width="9.33333333333333" style="9"/>
+    <col min="2" max="2" width="28.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="9"/>
+    <col min="4" max="4" width="13.109375" style="9"/>
+    <col min="5" max="5" width="21.44140625" style="9"/>
+    <col min="6" max="6" width="12.88671875" style="9"/>
+    <col min="7" max="7" width="9.33203125" style="9"/>
     <col min="8" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="12.1111111111111" style="20"/>
-    <col min="10" max="10" width="19.4444444444444" style="9"/>
-    <col min="11" max="11" width="28.1111111111111" style="9"/>
-    <col min="12" max="12" width="31.4444444444444" style="9"/>
-    <col min="13" max="13" width="18.5555555555556" style="9" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" style="9"/>
-    <col min="15" max="15" width="14.5555555555556" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.8888888888889" style="9"/>
-    <col min="17" max="17" width="14.1111111111111" style="9"/>
+    <col min="9" max="9" width="12.109375" style="20"/>
+    <col min="10" max="10" width="19.44140625" style="9"/>
+    <col min="11" max="11" width="28.109375" style="9"/>
+    <col min="12" max="12" width="31.44140625" style="9"/>
+    <col min="13" max="13" width="18.5546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="9"/>
+    <col min="15" max="15" width="14.5546875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="9"/>
+    <col min="17" max="17" width="14.109375" style="9"/>
     <col min="18" max="16384" width="8" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:16">
       <c r="B1" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:16">
       <c r="B2" s="9" t="s">
         <v>76</v>
       </c>
@@ -5113,7 +4548,7 @@
       </c>
       <c r="E2" s="66"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:16">
       <c r="B3" s="9" t="s">
         <v>77</v>
       </c>
@@ -5122,7 +4557,7 @@
       </c>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="1:16">
       <c r="B4" s="26" t="s">
         <v>79</v>
       </c>
@@ -5169,7 +4604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:16">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -5214,7 +4649,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:16">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -5259,7 +4694,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:16">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -5304,7 +4739,7 @@
         <v>39857</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:16">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -5349,7 +4784,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:16">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -5394,7 +4829,7 @@
         <v>40363</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:16">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -5438,7 +4873,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:16">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -5483,7 +4918,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:16">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -5528,7 +4963,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:16">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -5573,7 +5008,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:16">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -5618,7 +5053,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:16">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -5663,7 +5098,7 @@
         <v>40195</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:16">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -5708,7 +5143,7 @@
         <v>40469</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:16">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -5753,7 +5188,7 @@
         <v>39821</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:16">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -5798,7 +5233,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="19" ht="16.35" spans="1:16">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -5843,7 +5278,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="2:16">
+    <row r="20" spans="1:16" ht="14.4">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -5858,7 +5293,7 @@
       <c r="O20" s="73"/>
       <c r="P20" s="23"/>
     </row>
-    <row r="21" ht="14.4" spans="2:16">
+    <row r="21" spans="1:16" ht="14.4">
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -5873,7 +5308,7 @@
       <c r="O21" s="24"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" ht="14.4" spans="2:16">
+    <row r="22" spans="1:16" ht="14.4">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -5888,7 +5323,7 @@
       <c r="O22" s="19"/>
       <c r="P22" s="78"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:16">
       <c r="B25" s="9" t="s">
         <v>177</v>
       </c>
@@ -5902,7 +5337,7 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:16">
       <c r="B26" s="9" t="s">
         <v>179</v>
       </c>
@@ -5916,7 +5351,7 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:16">
       <c r="B28" s="9" t="s">
         <v>181</v>
       </c>
@@ -5924,7 +5359,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:16">
       <c r="B29" s="9" t="s">
         <v>182</v>
       </c>
@@ -5932,18 +5367,18 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:16">
       <c r="B30" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C30" s="71"/>
     </row>
-    <row r="32" ht="13.95" spans="2:2">
+    <row r="32" spans="1:16">
       <c r="B32" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" ht="15.15" spans="2:16">
+    <row r="33" spans="2:24" ht="14.4">
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
@@ -5960,7 +5395,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="2:24">
+    <row r="34" spans="2:24" ht="15">
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -5981,7 +5416,7 @@
       <c r="W34" s="80"/>
       <c r="X34" s="80"/>
     </row>
-    <row r="35" ht="16.35" spans="2:16">
+    <row r="35" spans="2:24" ht="15.6">
       <c r="B35" s="1" t="s">
         <v>186</v>
       </c>
@@ -6010,7 +5445,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="36" ht="16.35" spans="2:16">
+    <row r="36" spans="2:24" ht="15.6">
       <c r="B36" s="1" t="s">
         <v>186</v>
       </c>
@@ -6037,7 +5472,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="37" ht="16.35" spans="2:16">
+    <row r="37" spans="2:24" ht="15.6">
       <c r="B37" s="1" t="s">
         <v>191</v>
       </c>
@@ -6066,7 +5501,7 @@
         <v>39810</v>
       </c>
     </row>
-    <row r="38" ht="16.35" spans="2:16">
+    <row r="38" spans="2:24" ht="15.6">
       <c r="B38" s="1" t="s">
         <v>197</v>
       </c>
@@ -6093,7 +5528,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="39" ht="16.35" spans="2:16">
+    <row r="39" spans="2:24" ht="15.6">
       <c r="B39" s="1" t="s">
         <v>200</v>
       </c>
@@ -6120,7 +5555,7 @@
         <v>39902</v>
       </c>
     </row>
-    <row r="40" ht="15.15" spans="2:16">
+    <row r="40" spans="2:24" ht="14.4">
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -6133,7 +5568,7 @@
       <c r="O40" s="74"/>
       <c r="P40" s="83"/>
     </row>
-    <row r="41" ht="15.15" spans="2:16">
+    <row r="41" spans="2:24" ht="14.4">
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -6146,7 +5581,7 @@
       <c r="O41" s="74"/>
       <c r="P41" s="83"/>
     </row>
-    <row r="42" ht="15.15" spans="2:16">
+    <row r="42" spans="2:24" ht="14.4">
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
@@ -6162,12 +5597,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6179,23 +5614,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.44444444444444" style="58"/>
-    <col min="2" max="2" width="35.6666666666667" style="58" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="58"/>
+    <col min="2" max="2" width="35.6640625" style="58" customWidth="1"/>
     <col min="3" max="4" width="8" style="58"/>
-    <col min="5" max="5" width="12.8888888888889" style="58"/>
-    <col min="6" max="6" width="27.4444444444444" style="58" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" style="59" customWidth="1"/>
-    <col min="8" max="8" width="30.3333333333333" style="58" customWidth="1"/>
-    <col min="9" max="9" width="24.3333333333333" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="58"/>
+    <col min="6" max="6" width="27.44140625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="58" customWidth="1"/>
     <col min="10" max="16384" width="8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="58" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:9">
       <c r="B2" s="58" t="s">
         <v>205</v>
       </c>
@@ -6826,7 +6261,7 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:9">
       <c r="B25" s="58" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -6835,7 +6270,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:9">
       <c r="B27" s="58" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -6847,49 +6282,47 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W17" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66666666666667" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="14" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="15.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="19" max="21" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" style="1" customWidth="1"/>
+    <col min="19" max="21" width="9.6640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="23" style="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.66666666666667" style="1"/>
-    <col min="25" max="25" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" style="1"/>
+    <col min="24" max="24" width="9.6640625" style="1"/>
+    <col min="25" max="25" width="14.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="1"/>
     <col min="27" max="27" width="13" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="29" max="30" width="9.66666666666667" style="1"/>
-    <col min="31" max="31" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.66666666666667" style="1"/>
-    <col min="33" max="33" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="34" max="35" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.66666666666667" style="1"/>
+    <col min="28" max="28" width="13.21875" style="1" customWidth="1"/>
+    <col min="29" max="30" width="9.6640625" style="1"/>
+    <col min="31" max="31" width="13.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" style="1"/>
+    <col min="33" max="33" width="12.33203125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="14.33203125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:35">
+    <row r="1" spans="1:35" ht="57.6">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7094,7 +6527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" spans="1:35">
+    <row r="3" spans="1:35" s="15" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -7831,7 +7264,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:35">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -8477,17 +7910,17 @@
       <c r="AD17" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="AE17" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF17" s="50" t="s">
-        <v>377</v>
+      <c r="AE17" s="179">
+        <v>4018026604</v>
+      </c>
+      <c r="AF17" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="AG17" s="13">
         <v>43207</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AI17" s="17">
         <v>40077</v>
@@ -8495,40 +7928,40 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="P18" s="13">
         <v>40046</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S18" s="1">
         <v>13</v>
@@ -8540,7 +7973,7 @@
         <v>171</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W18" s="1">
         <v>9643417896</v>
@@ -8549,19 +7982,19 @@
         <v>243</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AB18" s="1">
         <v>9062497559</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AD18" s="50" t="s">
         <v>246</v>
@@ -8579,91 +8012,105 @@
         <v>149</v>
       </c>
       <c r="AI18" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" s="27" customFormat="1" spans="1:35">
-      <c r="A19" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" s="13">
+        <v>38982</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>4020691039</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="15">
+        <v>16</v>
+      </c>
+      <c r="T19" s="15">
+        <v>9</v>
+      </c>
+      <c r="U19" s="1">
+        <v>586</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W19" s="1">
+        <v>89818723635</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>89818723635</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="27">
-        <v>1</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1</v>
-      </c>
-      <c r="J19" s="27">
-        <v>1</v>
-      </c>
-      <c r="K19" s="27">
-        <v>1</v>
-      </c>
-      <c r="M19" s="27">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="AD19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>4015468524</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG19" s="178">
+        <v>42440</v>
+      </c>
+      <c r="AH19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="P19" s="29">
-        <v>38982</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>4020691039</v>
-      </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="3">
-        <v>16</v>
-      </c>
-      <c r="T19" s="3">
-        <v>9</v>
-      </c>
-      <c r="U19" s="27">
-        <v>586</v>
-      </c>
-      <c r="V19" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="W19" s="27">
-        <v>89818723635</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z19" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA19" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB19" s="27">
-        <v>89818723635</v>
-      </c>
-      <c r="AC19" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI19" s="29"/>
+      <c r="AI19" s="13">
+        <v>39008</v>
+      </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
@@ -8694,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P20" s="13">
         <v>40081</v>
@@ -8703,7 +8150,7 @@
         <v>149</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S20" s="1">
         <v>13</v>
@@ -8715,22 +8162,22 @@
         <v>279</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="W20" s="1">
         <v>9119020705</v>
       </c>
       <c r="X20" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="AB20" s="1">
         <v>9119020705</v>
@@ -8739,13 +8186,13 @@
         <v>147</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE20" s="44">
         <v>4022352102</v>
       </c>
-      <c r="AF20" s="50" t="s">
-        <v>399</v>
+      <c r="AF20" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="AG20" s="13">
         <v>44894</v>
@@ -8754,7 +8201,7 @@
         <v>161</v>
       </c>
       <c r="AI20" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -8786,16 +8233,16 @@
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P21" s="13">
         <v>39902</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S21" s="1">
         <v>13</v>
@@ -8807,13 +8254,13 @@
         <v>692</v>
       </c>
       <c r="V21" s="43" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="W21" s="1">
         <v>9313636214</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Y21" s="52" t="s">
         <v>200</v>
@@ -8822,7 +8269,7 @@
         <v>100</v>
       </c>
       <c r="AA21" s="52" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AB21" s="1">
         <v>9219925503</v>
@@ -8841,10 +8288,10 @@
         <v>43661</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AI21" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -8885,7 +8332,7 @@
         <v>7000</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P22" s="13">
         <v>40469</v>
@@ -8903,7 +8350,7 @@
         <v>617</v>
       </c>
       <c r="V22" s="43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="W22" s="1">
         <v>9045564762</v>
@@ -8912,7 +8359,7 @@
         <v>250</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>308</v>
@@ -8927,13 +8374,13 @@
         <v>159</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AE22" s="44">
         <v>4017753196</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AG22" s="13">
         <v>42838</v>
@@ -8942,10 +8389,10 @@
         <v>161</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -8980,7 +8427,7 @@
         <v>7000</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P23" s="17">
         <v>40195</v>
@@ -8999,7 +8446,7 @@
         <v>64</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="W23" s="1">
         <v>9657737525</v>
@@ -9059,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P24" s="13">
         <v>39821</v>
@@ -9068,7 +8515,7 @@
         <v>4022398654</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="S24" s="1">
         <v>14</v>
@@ -9080,7 +8527,7 @@
         <v>631</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="W24" s="1">
         <v>9602689892</v>
@@ -9089,13 +8536,13 @@
         <v>250</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AB24" s="1">
         <v>9219221848</v>
@@ -9104,22 +8551,22 @@
         <v>165</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AE24" s="44">
         <v>4010130504</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AG24" s="13">
         <v>40470</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AI24" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -9163,7 +8610,7 @@
         <v>7000</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P25" s="13">
         <v>39529</v>
@@ -9172,7 +8619,7 @@
         <v>4022149794</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="S25" s="1">
         <v>14</v>
@@ -9184,19 +8631,19 @@
         <v>471</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="W25" s="1">
         <v>9817032760</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>167</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>272</v>
@@ -9208,10 +8655,10 @@
         <v>169</v>
       </c>
       <c r="AD25" s="50" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AE25" s="50" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AF25" s="17" t="s">
         <v>254</v>
@@ -9220,21 +8667,21 @@
         <v>44170</v>
       </c>
       <c r="AH25" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI25" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="27" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="AI25" s="13" t="s">
+      <c r="C26" s="3" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="26" s="27" customFormat="1" spans="1:35">
-      <c r="A26" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -9261,7 +8708,7 @@
         <v>7000</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P26" s="30">
         <v>38989</v>
@@ -9289,7 +8736,7 @@
         <v>269</v>
       </c>
       <c r="Y26" s="27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z26" s="27" t="s">
         <v>111</v>
@@ -9301,16 +8748,16 @@
         <v>89213026506</v>
       </c>
       <c r="AC26" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AD26" s="53" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AE26" s="53">
         <v>4015447975</v>
       </c>
       <c r="AF26" s="53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="30"/>
@@ -9356,7 +8803,7 @@
         <v>7000</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P27" s="13">
         <v>39987</v>
@@ -9375,7 +8822,7 @@
         <v>43</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="W27" s="1">
         <v>9819793731</v>
@@ -9384,13 +8831,13 @@
         <v>250</v>
       </c>
       <c r="Y27" s="52" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z27" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA27" s="52" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB27" s="1">
         <v>9118110171</v>
@@ -9399,13 +8846,13 @@
         <v>174</v>
       </c>
       <c r="AD27" s="52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AE27" s="44">
         <v>4004820373</v>
       </c>
       <c r="AF27" s="52" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AG27" s="13">
         <v>37903</v>
@@ -9417,15 +8864,15 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="28" s="27" customFormat="1" spans="1:35">
+    <row r="28" spans="1:35" s="27" customFormat="1">
       <c r="A28" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
@@ -9462,10 +8909,10 @@
         <v>89219583612</v>
       </c>
       <c r="Y28" s="54" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z28" s="54" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AA28" s="54" t="s">
         <v>173</v>
@@ -9474,17 +8921,17 @@
         <v>9213827100</v>
       </c>
       <c r="AC28" s="54" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AH28" s="40"/>
       <c r="AI28" s="40"/>
     </row>
-    <row r="29" s="27" customFormat="1" spans="1:35">
+    <row r="29" spans="1:35" s="27" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>374</v>
@@ -9525,32 +8972,32 @@
         <v>89200043637</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AB29" s="56">
         <v>9914876053</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AH29" s="34"/>
       <c r="AI29" s="34"/>
     </row>
-    <row r="30" s="39" customFormat="1" spans="1:35">
+    <row r="30" spans="1:35" s="39" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5">
@@ -9577,7 +9024,7 @@
         <v>40627</v>
       </c>
       <c r="Q30" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="S30" s="39">
         <v>12</v>
@@ -9594,10 +9041,10 @@
       </c>
       <c r="X30" s="27"/>
       <c r="Y30" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AA30" s="5" t="s">
         <v>283</v>
@@ -9606,7 +9053,7 @@
         <v>9117539023</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AE30" s="39">
         <v>4021954156</v>
@@ -9618,13 +9065,13 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -9648,7 +9095,7 @@
         <v>269</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="W31" s="1">
         <v>9206704460</v>
@@ -9657,7 +9104,7 @@
         <v>269</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>168</v>
@@ -9669,17 +9116,17 @@
         <v>9112524414</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>164</v>
@@ -9711,38 +9158,38 @@
         <v>693</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="W32" s="1">
         <v>9216469348</v>
       </c>
       <c r="X32" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA32" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="AB32" s="1">
         <v>9219509892</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>158</v>
@@ -9769,35 +9216,35 @@
         <v>408</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="W33" s="1">
         <v>9956241056</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>325</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AB33" s="1">
         <v>9219411781</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>100</v>
@@ -9842,7 +9289,7 @@
         <v>59</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="W34" s="1">
         <v>9046031493</v>
@@ -9851,10 +9298,10 @@
         <v>250</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>297</v>
@@ -9863,20 +9310,20 @@
         <v>9046031493</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -9909,7 +9356,7 @@
         <v>320</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="W35" s="1">
         <v>9522043973</v>
@@ -9918,26 +9365,26 @@
         <v>250</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>308</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AB35" s="1">
         <v>9522043973</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:35">
       <c r="A36" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>259</v>
@@ -9958,9 +9405,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:35">
       <c r="A37" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>172</v>
@@ -9979,50 +9426,46 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:M35">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:M35" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="O31">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O33">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="V8" r:id="rId1" display="alexbritik@gmail.com"/>
-    <hyperlink ref="V4" r:id="rId2" display="mbatakov@mail.ru"/>
-    <hyperlink ref="V22" r:id="rId3" display="neva-most@yandex.ru"/>
-    <hyperlink ref="V21" r:id="rId4" display="konstantin.svitkov@gmail.com"/>
-    <hyperlink ref="V11" r:id="rId5" display="9112327024@mail.ru"/>
+    <hyperlink ref="V8" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="V4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="V22" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="V21" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="V11" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="36" t="s">
         <v>99</v>
       </c>
@@ -10030,7 +9473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
         <v>105</v>
       </c>
@@ -10038,12 +9481,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10054,7 +9497,7 @@
         <v>289</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10065,10 +9508,10 @@
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="24" t="s">
         <v>110</v>
       </c>
@@ -10076,7 +9519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="37" t="s">
         <v>326</v>
       </c>
@@ -10092,10 +9535,10 @@
         <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="24" t="s">
         <v>122</v>
       </c>
@@ -10111,18 +9554,18 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="24" t="s">
         <v>132</v>
       </c>
@@ -10130,37 +9573,37 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="24" t="s">
         <v>150</v>
       </c>
@@ -10176,18 +9619,18 @@
         <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="24" t="s">
         <v>171</v>
       </c>
@@ -10195,42 +9638,39 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:XEF35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66666666666667" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="40.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="16360" width="9.66666666666667" style="1"/>
+    <col min="4" max="4" width="35.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16360" width="9.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:6">
+    <row r="1" spans="1:6" ht="57.6">
       <c r="A1" s="2" t="s">
         <v>206</v>
       </c>
@@ -10246,9 +9686,9 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B2" s="13">
         <v>40100</v>
@@ -10260,9 +9700,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="15" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B3" s="13">
         <v>40306</v>
@@ -10276,9 +9716,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B4" s="13">
         <v>39367</v>
@@ -10290,9 +9730,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B5" s="13">
         <v>39857</v>
@@ -10304,9 +9744,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B6" s="13">
         <v>39646</v>
@@ -10318,9 +9758,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B7" s="13">
         <v>40579</v>
@@ -10332,9 +9772,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B8" s="13">
         <v>39849</v>
@@ -10346,9 +9786,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B9" s="13">
         <v>39462</v>
@@ -10360,9 +9800,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B10" s="17">
         <v>39166</v>
@@ -10374,9 +9814,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B11" s="13">
         <v>38917</v>
@@ -10388,9 +9828,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B12" s="13">
         <v>39874</v>
@@ -10399,12 +9839,12 @@
         <v>9817864400</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B13" s="13">
         <v>40363</v>
@@ -10416,9 +9856,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B14" s="17">
         <v>39581</v>
@@ -10430,9 +9870,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B15" s="13">
         <v>39916</v>
@@ -10444,9 +9884,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B16" s="13">
         <v>40421</v>
@@ -10460,7 +9900,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B17" s="17">
         <v>40070</v>
@@ -10474,7 +9914,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B18" s="13">
         <v>40046</v>
@@ -10483,12 +9923,12 @@
         <v>9643417896</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" s="27" customFormat="1" spans="1:4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="27" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B19" s="29">
         <v>38982</v>
@@ -10497,12 +9937,12 @@
         <v>9818723635</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B20" s="13">
         <v>40081</v>
@@ -10516,7 +9956,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B21" s="13">
         <v>39902</v>
@@ -10530,7 +9970,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B22" s="13">
         <v>40469</v>
@@ -10542,9 +9982,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
+    <row r="23" spans="1:4" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B23" s="17">
         <v>40195</v>
@@ -10558,7 +9998,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B24" s="13">
         <v>39821</v>
@@ -10572,7 +10012,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B25" s="13">
         <v>39529</v>
@@ -10584,9 +10024,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" s="27" customFormat="1" spans="1:4">
+    <row r="26" spans="1:4" s="27" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B26" s="30">
         <v>38989</v>
@@ -10595,12 +10035,12 @@
         <v>9213026506</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B27" s="13">
         <v>39987</v>
@@ -10609,12 +10049,12 @@
         <v>9819793731</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" s="27" customFormat="1" spans="1:4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="27" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B28" s="31">
         <v>38933</v>
@@ -10623,12 +10063,12 @@
         <v>9219583612</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="29" s="27" customFormat="1" spans="1:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="27" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B29" s="34">
         <v>39810</v>
@@ -10637,12 +10077,12 @@
         <v>9200043637</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B30" s="35">
         <v>40840</v>
@@ -10651,12 +10091,12 @@
         <v>9206704460</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B31" s="35">
         <v>40821</v>
@@ -10665,12 +10105,12 @@
         <v>9219428923</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B32" s="35">
         <v>40954</v>
@@ -10679,12 +10119,12 @@
         <v>9216469348</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B33" s="35">
         <v>40978</v>
@@ -10693,12 +10133,12 @@
         <v>9956241056</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B34" s="35">
         <v>41016</v>
@@ -10707,12 +10147,12 @@
         <v>9046031493</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B35" s="35">
         <v>41062</v>
@@ -10721,37 +10161,35 @@
         <v>9522043973</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.8888888888889" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.4444444444444" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.2222222222222" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.1111111111111" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="18.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>79</v>
       </c>
@@ -10762,18 +10200,18 @@
         <v>81</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>539</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>542</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -10781,7 +10219,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" ht="15.6" spans="1:9">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -10795,7 +10233,7 @@
         <v>40100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>98</v>
@@ -10804,7 +10242,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" ht="15.6" spans="1:9">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -10818,7 +10256,7 @@
         <v>40306</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>143</v>
@@ -10827,7 +10265,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" ht="15.6" spans="1:9">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -10841,7 +10279,7 @@
         <v>39367</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>104</v>
@@ -10850,7 +10288,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" ht="15.6" spans="1:9">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -10864,7 +10302,7 @@
         <v>39857</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F6" s="16">
         <v>4023439220</v>
@@ -10873,7 +10311,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" ht="15.6" spans="1:9">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -10887,7 +10325,7 @@
         <v>39166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>115</v>
@@ -10896,7 +10334,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" ht="15.6" spans="1:9">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -10910,7 +10348,7 @@
         <v>40363</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>121</v>
@@ -10919,7 +10357,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" ht="15.6" spans="1:9">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
@@ -10933,7 +10371,7 @@
         <v>39581</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>126</v>
@@ -10942,7 +10380,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" ht="15.6" spans="1:9">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
@@ -10956,7 +10394,7 @@
         <v>39916</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>131</v>
@@ -10965,7 +10403,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" ht="15.6" spans="1:9">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="1" t="s">
         <v>132</v>
       </c>
@@ -10979,7 +10417,7 @@
         <v>40070</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>137</v>
@@ -10988,30 +10426,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" ht="15.6" spans="1:9">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D12" s="13">
         <v>40046</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" ht="15.6" spans="1:9">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
@@ -11025,7 +10463,7 @@
         <v>40081</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>149</v>
@@ -11034,7 +10472,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" ht="15.6" spans="1:9">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
@@ -11048,7 +10486,7 @@
         <v>40469</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>161</v>
@@ -11057,7 +10495,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" ht="15.6" spans="1:9">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -11071,7 +10509,7 @@
         <v>40195</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>155</v>
@@ -11080,7 +10518,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" ht="15.6" spans="1:9">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="1" t="s">
         <v>162</v>
       </c>
@@ -11094,7 +10532,7 @@
         <v>39821</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F16" s="14">
         <v>4022398654</v>
@@ -11103,7 +10541,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" ht="15.6" spans="1:9">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="1" t="s">
         <v>167</v>
       </c>
@@ -11117,7 +10555,7 @@
         <v>39529</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F17" s="16">
         <v>4022149794</v>
@@ -11126,7 +10564,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" ht="15.6" spans="1:6">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="1" t="s">
         <v>171</v>
       </c>
@@ -11140,27 +10578,27 @@
         <v>39987</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" ht="13.2" spans="4:4">
+    <row r="21" spans="1:9" s="9" customFormat="1" ht="13.2">
       <c r="D21" s="20"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="13.2" spans="4:4">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="13.2">
       <c r="D22" s="20"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="13.2" spans="4:4">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="13.2">
       <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:9">
       <c r="A24" s="21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -11171,16 +10609,16 @@
         <v>81</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:6">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="1" t="s">
         <v>186</v>
       </c>
@@ -11194,13 +10632,13 @@
         <v>39646</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F26" s="16">
         <v>4022245584</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:6">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="1" t="s">
         <v>186</v>
       </c>
@@ -11214,13 +10652,13 @@
         <v>40579</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:6">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="1" t="s">
         <v>288</v>
       </c>
@@ -11234,13 +10672,13 @@
         <v>39849</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F28" s="16">
         <v>4022381251</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:6">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="1" t="s">
         <v>302</v>
       </c>
@@ -11254,13 +10692,13 @@
         <v>39462</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:6">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="1" t="s">
         <v>191</v>
       </c>
@@ -11274,13 +10712,13 @@
         <v>40621</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:6">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
@@ -11294,13 +10732,13 @@
         <v>38917</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F31" s="10">
         <v>4002634542</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:6">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="1" t="s">
         <v>197</v>
       </c>
@@ -11314,15 +10752,15 @@
         <v>40421</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:6">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>259</v>
@@ -11334,13 +10772,13 @@
         <v>38982</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F33" s="10">
         <v>4020691039</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:6">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="1" t="s">
         <v>200</v>
       </c>
@@ -11354,85 +10792,85 @@
         <v>39902</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" ht="15.6" spans="1:6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="15" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D35" s="17">
         <v>38989</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F35" s="19">
         <v>4020684651</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:6">
+    <row r="36" spans="1:6" ht="15.6">
       <c r="A36" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>303</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D36" s="23">
         <v>38933</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F36" s="19">
         <v>4020668443</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
     </row>
-    <row r="39" ht="15.6" spans="1:4">
+    <row r="39" spans="1:6" ht="15.6">
       <c r="A39" s="26" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" ht="15.6" spans="1:4">
+    <row r="40" spans="1:6" ht="15.6">
       <c r="A40" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" ht="15.6" spans="1:4">
+    <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="9">
         <v>89217427984</v>
       </c>
@@ -11440,19 +10878,19 @@
       <c r="C41" s="9"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" ht="15.6" spans="1:4">
+    <row r="42" spans="1:6" ht="15.6">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" ht="15.6" spans="1:4">
+    <row r="43" spans="1:6" ht="15.6">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" ht="15.6" spans="1:4">
+    <row r="44" spans="1:6" ht="15.6">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11460,28 +10898,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -11489,19 +10925,19 @@
         <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -11540,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
@@ -11554,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>186</v>
       </c>
@@ -11571,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -11582,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>288</v>
       </c>
@@ -11599,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>302</v>
       </c>
@@ -11613,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -11627,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -11638,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>326</v>
       </c>
@@ -11663,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -11694,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>197</v>
       </c>
@@ -11719,17 +11155,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>259</v>
@@ -11742,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
@@ -11753,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -11764,7 +11200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>156</v>
       </c>
@@ -11775,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -11786,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -11797,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>167</v>
       </c>
@@ -11813,10 +11249,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26">
@@ -11829,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -11843,9 +11279,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="1:4">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>303</v>
@@ -11857,42 +11293,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="1:5">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C29" s="5"/>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:5">
+    <row r="30" spans="1:6" ht="14.4">
       <c r="A30" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30" s="5"/>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>259</v>
@@ -11903,10 +11339,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -11915,27 +11351,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:6">
       <c r="A34" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:6">
       <c r="A36" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>192</v>
@@ -11946,6 +11382,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>